--- a/media/excel/server.xlsx
+++ b/media/excel/server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qyoung\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BBA44-17A8-42A2-B82E-67D68998B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9918DA-0DE8-4362-8365-D05215607D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="5475" windowWidth="10545" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="10545" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rdp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,11 +73,15 @@
     <t>172.16.2.2</t>
   </si>
   <si>
-    <t>linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,30 +443,30 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>3389</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>22</v>
